--- a/thickness_data.xlsx
+++ b/thickness_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\TapeTargetry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBC540F-D726-4D31-B1C7-F45C29B450A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A625ABA6-9AAF-43A1-9A83-23372AFED2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
